--- a/Data/strange_list.xlsx
+++ b/Data/strange_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3656,17 +3656,17 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="C120" t="n">
-        <v>23622</v>
+        <v>13705</v>
       </c>
       <c r="D120" t="n">
-        <v>23997</v>
+        <v>13811</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
+          <t>Did you take the same price increases internationally as you did domestically? That's the first quick one.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121">
@@ -3683,26 +3683,26 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="C121" t="n">
-        <v>23622</v>
+        <v>13705</v>
       </c>
       <c r="D121" t="n">
-        <v>23997</v>
+        <v>13811</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
+          <t>Did you take the same price increases internationally as you did domestically? That's the first quick one.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Question_2_open</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122">
@@ -3710,26 +3710,26 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="C122" t="n">
-        <v>23622</v>
+        <v>13705</v>
       </c>
       <c r="D122" t="n">
-        <v>23997</v>
+        <v>13811</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
+          <t>Did you take the same price increases internationally as you did domestically? That's the first quick one.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>QID_1</t>
+          <t>Question_2_specific</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123">
@@ -3737,26 +3737,26 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="C123" t="n">
-        <v>23622</v>
+        <v>13705</v>
       </c>
       <c r="D123" t="n">
-        <v>23997</v>
+        <v>13811</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
+          <t>Did you take the same price increases internationally as you did domestically? That's the first quick one.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>QID_12</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124">
@@ -3764,26 +3764,26 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="C124" t="n">
-        <v>23622</v>
+        <v>13705</v>
       </c>
       <c r="D124" t="n">
-        <v>23997</v>
+        <v>13811</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
+          <t>Did you take the same price increases internationally as you did domestically? That's the first quick one.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125">
@@ -3791,17 +3791,17 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C125" t="n">
-        <v>21661</v>
+        <v>13705</v>
       </c>
       <c r="D125" t="n">
-        <v>22073</v>
+        <v>13811</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
+          <t>Did you take the same price increases internationally as you did domestically? That's the first quick one.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>8</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126">
@@ -3818,26 +3818,26 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C126" t="n">
-        <v>21661</v>
+        <v>13705</v>
       </c>
       <c r="D126" t="n">
-        <v>22073</v>
+        <v>13811</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
+          <t>Did you take the same price increases internationally as you did domestically? That's the first quick one.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Question_1_Market_related</t>
+          <t>Question_2_specific</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127">
@@ -3845,26 +3845,26 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C127" t="n">
-        <v>21661</v>
+        <v>13705</v>
       </c>
       <c r="D127" t="n">
-        <v>22073</v>
+        <v>13811</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
+          <t>Did you take the same price increases internationally as you did domestically? That's the first quick one.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Question_1_Market_related</t>
+          <t>QID_12</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>8</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128">
@@ -3872,26 +3872,26 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C128" t="n">
-        <v>32129</v>
+        <v>26702</v>
       </c>
       <c r="D128" t="n">
-        <v>32475</v>
+        <v>26940</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>George Davis: Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
+          <t>That's -- our GP effort, we're just really moving into that, too, and we're arranging that properly also. But those efforts, we think, are contributing also. But I'd say it's a mix of those 3 variables. I can't weigh them for you, really.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129">
@@ -3899,26 +3899,26 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C129" t="n">
-        <v>32129</v>
+        <v>26702</v>
       </c>
       <c r="D129" t="n">
-        <v>32475</v>
+        <v>26940</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>George Davis: Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
+          <t>That's -- our GP effort, we're just really moving into that, too, and we're arranging that properly also. But those efforts, we think, are contributing also. But I'd say it's a mix of those 3 variables. I can't weigh them for you, really.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
@@ -3926,26 +3926,26 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C130" t="n">
-        <v>32129</v>
+        <v>26702</v>
       </c>
       <c r="D130" t="n">
-        <v>32475</v>
+        <v>26940</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>George Davis: Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
+          <t>That's -- our GP effort, we're just really moving into that, too, and we're arranging that properly also. But those efforts, we think, are contributing also. But I'd say it's a mix of those 3 variables. I can't weigh them for you, really.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131">
@@ -3953,26 +3953,26 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C131" t="n">
-        <v>21475</v>
+        <v>28108</v>
       </c>
       <c r="D131" t="n">
-        <v>22073</v>
+        <v>28491</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>I want to stick with DCG Bob. If you look impressive that ASPs were up 9% year-over-year, especially as the mix shifted toward the comms business, which I believe tends to be lower ASPs. It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
+          <t>n terms of ASPs, there's going to be puts and takes. And we've talked a number of times about what those puts and takes are. As we grow in comprehensive, like we had a strong comprehensive quarter in the third quarter, ASPs are higher, growing internationally, generally at a higher ASP.But then you also have significant growth in the low stage, and that can affect the mix as well.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>QID_2</t>
+          <t>AID_23</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>7</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132">
@@ -3980,26 +3980,26 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C132" t="n">
-        <v>21474</v>
+        <v>28107</v>
       </c>
       <c r="D132" t="n">
-        <v>22073</v>
+        <v>28491</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I want to stick with DCG Bob. If you look impressive that ASPs were up 9% year-over-year, especially as the mix shifted toward the comms business, which I believe tends to be lower ASPs. It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
+          <t>In terms of ASPs, there's going to be puts and takes. And we've talked a number of times about what those puts and takes are. As we grow in comprehensive, like we had a strong comprehensive quarter in the third quarter, ASPs are higher, growing internationally, generally at a higher ASP.But then you also have significant growth in the low stage, and that can affect the mix as well.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>9</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133">
@@ -4007,26 +4007,26 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="C133" t="n">
-        <v>21475</v>
+        <v>28108</v>
       </c>
       <c r="D133" t="n">
-        <v>22073</v>
+        <v>28491</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I want to stick with DCG Bob. If you look impressive that ASPs were up 9% year-over-year, especially as the mix shifted toward the comms business, which I believe tends to be lower ASPs. It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
+          <t>n terms of ASPs, there's going to be puts and takes. And we've talked a number of times about what those puts and takes are. As we grow in comprehensive, like we had a strong comprehensive quarter in the third quarter, ASPs are higher, growing internationally, generally at a higher ASP.But then you also have significant growth in the low stage, and that can affect the mix as well.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Question_3_attack</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>106</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134">
@@ -4034,26 +4034,26 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C134" t="n">
-        <v>23449</v>
+        <v>23622</v>
       </c>
       <c r="D134" t="n">
-        <v>23554</v>
+        <v>23997</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>even though you're right. The ASPs with comms have a tendency to be a little bit lower. I think that's...</t>
+          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Answer_2_negative</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4061,26 +4061,26 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C135" t="n">
-        <v>23449</v>
+        <v>23622</v>
       </c>
       <c r="D135" t="n">
-        <v>23554</v>
+        <v>23997</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>even though you're right. The ASPs with comms have a tendency to be a little bit lower. I think that's...</t>
+          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Answer_2_negative</t>
+          <t>Question_2_open</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -4088,26 +4088,26 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C136" t="n">
-        <v>23449</v>
+        <v>23622</v>
       </c>
       <c r="D136" t="n">
-        <v>23554</v>
+        <v>23997</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>even though you're right. The ASPs with comms have a tendency to be a little bit lower. I think that's...</t>
+          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Answer_2_negative</t>
+          <t>QID_1</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137">
@@ -4115,26 +4115,26 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C137" t="n">
-        <v>32143</v>
+        <v>23622</v>
       </c>
       <c r="D137" t="n">
-        <v>32475</v>
+        <v>23997</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
+          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>AID_6</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>44</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138">
@@ -4142,26 +4142,26 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="C138" t="n">
-        <v>32142</v>
+        <v>23622</v>
       </c>
       <c r="D138" t="n">
-        <v>32476</v>
+        <v>23997</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
+          <t>As you pass along more price increases, what have you seen from an elasticity deferral perspective? In one hand, prices are higher. But on the other hand, miles driven have generally picked up since bottoming in the back half of last year and we think that’s a nice driver of that business and the overall business. So how is this balanced out in terms of deferred expanding?</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Answer_1_avoid_excuse</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139">
@@ -4172,23 +4172,23 @@
         <v>3041</v>
       </c>
       <c r="C139" t="n">
-        <v>32143</v>
+        <v>21661</v>
       </c>
       <c r="D139" t="n">
-        <v>32475</v>
+        <v>22073</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
+          <t xml:space="preserve"> It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Answer_2_negative</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
@@ -4196,17 +4196,17 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="C140" t="n">
-        <v>19003</v>
+        <v>21661</v>
       </c>
       <c r="D140" t="n">
-        <v>19207</v>
+        <v>22073</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>obviously you've seen some of your competitors of your peer group launch products that enable your broadband customer like the Flex product at Comcast. Is that something that you guys are considering too?</t>
+          <t xml:space="preserve"> It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
@@ -4223,26 +4223,26 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="C141" t="n">
-        <v>19003</v>
+        <v>21661</v>
       </c>
       <c r="D141" t="n">
-        <v>19207</v>
+        <v>22073</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>obviously you've seen some of your competitors of your peer group launch products that enable your broadband customer like the Flex product at Comcast. Is that something that you guys are considering too?</t>
+          <t xml:space="preserve"> It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
@@ -4250,26 +4250,26 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="C142" t="n">
-        <v>19003</v>
+        <v>32129</v>
       </c>
       <c r="D142" t="n">
-        <v>19207</v>
+        <v>32475</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>obviously you've seen some of your competitors of your peer group launch products that enable your broadband customer like the Flex product at Comcast. Is that something that you guys are considering too?</t>
+          <t>George Davis: Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143">
@@ -4277,26 +4277,26 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C143" t="n">
-        <v>21647</v>
+        <v>32129</v>
       </c>
       <c r="D143" t="n">
-        <v>22430</v>
+        <v>32475</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>So we look hard at – we expect customers to be doing genomes and first question they are and the volume of data on NovaSeq is very high. Last quarter we now crossed over where NovaSeq as a platform is generating more data than any other platform we had. It’s our path to HiSeq X. We expect that genomes, we expect that exomes and what we are finding again is those are exactly as we would expect to be biggest applications in NovaSeq.We are not finding cases where customers are using the NovaSeq as sort of a big machine to run other applications more cost-effectively. And that’s again the most to on genomes. And so, again we look at the mix and how customers using and those are some of the qualitative datapoints that I can share with you around what we are seeing in BaseSpace.</t>
+          <t>George Davis: Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>AID_19</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>140</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144">
@@ -4304,26 +4304,26 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C144" t="n">
-        <v>21647</v>
+        <v>32129</v>
       </c>
       <c r="D144" t="n">
-        <v>22430</v>
+        <v>32475</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>So we look hard at – we expect customers to be doing genomes and first question they are and the volume of data on NovaSeq is very high. Last quarter we now crossed over where NovaSeq as a platform is generating more data than any other platform we had. It’s our path to HiSeq X. We expect that genomes, we expect that exomes and what we are finding again is those are exactly as we would expect to be biggest applications in NovaSeq.We are not finding cases where customers are using the NovaSeq as sort of a big machine to run other applications more cost-effectively. And that’s again the most to on genomes. And so, again we look at the mix and how customers using and those are some of the qualitative datapoints that I can share with you around what we are seeing in BaseSpace.</t>
+          <t>George Davis: Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>141</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145">
@@ -4331,26 +4331,26 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C145" t="n">
-        <v>21647</v>
+        <v>21475</v>
       </c>
       <c r="D145" t="n">
-        <v>22430</v>
+        <v>22073</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>So we look hard at – we expect customers to be doing genomes and first question they are and the volume of data on NovaSeq is very high. Last quarter we now crossed over where NovaSeq as a platform is generating more data than any other platform we had. It’s our path to HiSeq X. We expect that genomes, we expect that exomes and what we are finding again is those are exactly as we would expect to be biggest applications in NovaSeq.We are not finding cases where customers are using the NovaSeq as sort of a big machine to run other applications more cost-effectively. And that’s again the most to on genomes. And so, again we look at the mix and how customers using and those are some of the qualitative datapoints that I can share with you around what we are seeing in BaseSpace.</t>
+          <t>I want to stick with DCG Bob. If you look impressive that ASPs were up 9% year-over-year, especially as the mix shifted toward the comms business, which I believe tends to be lower ASPs. It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>QID_2</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146">
@@ -4358,26 +4358,26 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C146" t="n">
-        <v>24256</v>
+        <v>21474</v>
       </c>
       <c r="D146" t="n">
-        <v>24983</v>
+        <v>22073</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
+          <t xml:space="preserve"> I want to stick with DCG Bob. If you look impressive that ASPs were up 9% year-over-year, especially as the mix shifted toward the comms business, which I believe tends to be lower ASPs. It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_2_specific</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>152</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
@@ -4385,26 +4385,26 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C147" t="n">
-        <v>24256</v>
+        <v>21475</v>
       </c>
       <c r="D147" t="n">
-        <v>24983</v>
+        <v>22073</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
+          <t>I want to stick with DCG Bob. If you look impressive that ASPs were up 9% year-over-year, especially as the mix shifted toward the comms business, which I believe tends to be lower ASPs. It's also happening in the quarter, where you're seeing your competitor ramping their next generation chips. So, I guess I'm trying to understand, what's the power of the Xeon Scalable upgrade cycle you referred to in your prepared comments, what innings are we in, in your mind, how much of an ASP lift can that give you, and do you anticipate any unusual pricing action as competition heats up in this market?</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_3_attack</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>162</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148">
@@ -4412,26 +4412,26 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C148" t="n">
-        <v>24256</v>
+        <v>23449</v>
       </c>
       <c r="D148" t="n">
-        <v>24983</v>
+        <v>23554</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
+          <t>even though you're right. The ASPs with comms have a tendency to be a little bit lower. I think that's...</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Answer_2_positive</t>
+          <t>Answer_2_negative</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>163</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149">
@@ -4439,26 +4439,26 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C149" t="n">
-        <v>24256</v>
+        <v>23449</v>
       </c>
       <c r="D149" t="n">
-        <v>24983</v>
+        <v>23554</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
+          <t>even though you're right. The ASPs with comms have a tendency to be a little bit lower. I think that's...</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>Answer_2_negative</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>164</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -4466,26 +4466,26 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C150" t="n">
-        <v>24256</v>
+        <v>23449</v>
       </c>
       <c r="D150" t="n">
-        <v>24983</v>
+        <v>23554</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
+          <t>even though you're right. The ASPs with comms have a tendency to be a little bit lower. I think that's...</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Answer_2_negative</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>152</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -4493,26 +4493,26 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C151" t="n">
-        <v>24256</v>
+        <v>32143</v>
       </c>
       <c r="D151" t="n">
-        <v>24983</v>
+        <v>32475</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
+          <t>Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>AID_6</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>162</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152">
@@ -4520,26 +4520,26 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C152" t="n">
-        <v>24256</v>
+        <v>32142</v>
       </c>
       <c r="D152" t="n">
-        <v>24983</v>
+        <v>32476</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
+          <t xml:space="preserve"> Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Answer_2_positive</t>
+          <t>Answer_1_avoid_excuse</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>163</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153">
@@ -4547,26 +4547,26 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="C153" t="n">
-        <v>24256</v>
+        <v>32143</v>
       </c>
       <c r="D153" t="n">
-        <v>24983</v>
+        <v>32475</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
+          <t>Yeah, I think Stacy, you've got the numbers right. $200 million was on the enterprise and government and comms area and that's -- I would say it was more in line with our expectations once you take out that 200 number. We had expected it to come up a little bit, the growth year-over-year was definitely above our expectations and--</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>Answer_2_negative</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154">
@@ -4574,26 +4574,26 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="C154" t="n">
-        <v>3608</v>
+        <v>19003</v>
       </c>
       <c r="D154" t="n">
-        <v>4028</v>
+        <v>19207</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
+          <t>obviously you've seen some of your competitors of your peer group launch products that enable your broadband customer like the Flex product at Comcast. Is that something that you guys are considering too?</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>QID_3</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155">
@@ -4601,26 +4601,26 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="C155" t="n">
-        <v>3608</v>
+        <v>19003</v>
       </c>
       <c r="D155" t="n">
-        <v>4028</v>
+        <v>19207</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
+          <t>obviously you've seen some of your competitors of your peer group launch products that enable your broadband customer like the Flex product at Comcast. Is that something that you guys are considering too?</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156">
@@ -4628,17 +4628,17 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="C156" t="n">
-        <v>3608</v>
+        <v>19003</v>
       </c>
       <c r="D156" t="n">
-        <v>4028</v>
+        <v>19207</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
+          <t>obviously you've seen some of your competitors of your peer group launch products that enable your broadband customer like the Flex product at Comcast. Is that something that you guys are considering too?</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157">
@@ -4655,26 +4655,26 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="C157" t="n">
-        <v>3608</v>
+        <v>21647</v>
       </c>
       <c r="D157" t="n">
-        <v>4028</v>
+        <v>22430</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
+          <t>So we look hard at – we expect customers to be doing genomes and first question they are and the volume of data on NovaSeq is very high. Last quarter we now crossed over where NovaSeq as a platform is generating more data than any other platform we had. It’s our path to HiSeq X. We expect that genomes, we expect that exomes and what we are finding again is those are exactly as we would expect to be biggest applications in NovaSeq.We are not finding cases where customers are using the NovaSeq as sort of a big machine to run other applications more cost-effectively. And that’s again the most to on genomes. And so, again we look at the mix and how customers using and those are some of the qualitative datapoints that I can share with you around what we are seeing in BaseSpace.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>AID_19</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>53</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
@@ -4682,26 +4682,26 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="C158" t="n">
-        <v>3608</v>
+        <v>21647</v>
       </c>
       <c r="D158" t="n">
-        <v>4028</v>
+        <v>22430</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
+          <t>So we look hard at – we expect customers to be doing genomes and first question they are and the volume of data on NovaSeq is very high. Last quarter we now crossed over where NovaSeq as a platform is generating more data than any other platform we had. It’s our path to HiSeq X. We expect that genomes, we expect that exomes and what we are finding again is those are exactly as we would expect to be biggest applications in NovaSeq.We are not finding cases where customers are using the NovaSeq as sort of a big machine to run other applications more cost-effectively. And that’s again the most to on genomes. And so, again we look at the mix and how customers using and those are some of the qualitative datapoints that I can share with you around what we are seeing in BaseSpace.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>QID_3</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159">
@@ -4709,26 +4709,26 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="C159" t="n">
-        <v>3608</v>
+        <v>21647</v>
       </c>
       <c r="D159" t="n">
-        <v>4028</v>
+        <v>22430</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
+          <t>So we look hard at – we expect customers to be doing genomes and first question they are and the volume of data on NovaSeq is very high. Last quarter we now crossed over where NovaSeq as a platform is generating more data than any other platform we had. It’s our path to HiSeq X. We expect that genomes, we expect that exomes and what we are finding again is those are exactly as we would expect to be biggest applications in NovaSeq.We are not finding cases where customers are using the NovaSeq as sort of a big machine to run other applications more cost-effectively. And that’s again the most to on genomes. And so, again we look at the mix and how customers using and those are some of the qualitative datapoints that I can share with you around what we are seeing in BaseSpace.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>51</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160">
@@ -4736,26 +4736,26 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="C160" t="n">
-        <v>3608</v>
+        <v>24256</v>
       </c>
       <c r="D160" t="n">
-        <v>4028</v>
+        <v>24983</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
+          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>52</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161">
@@ -4763,26 +4763,26 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="C161" t="n">
-        <v>3608</v>
+        <v>24256</v>
       </c>
       <c r="D161" t="n">
-        <v>4028</v>
+        <v>24983</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
+          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>53</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162">
@@ -4790,26 +4790,26 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="C162" t="n">
-        <v>11423</v>
+        <v>24256</v>
       </c>
       <c r="D162" t="n">
-        <v>11688</v>
+        <v>24983</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive?</t>
+          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>QID_12</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>92</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163">
@@ -4817,26 +4817,26 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="C163" t="n">
-        <v>11423</v>
+        <v>24256</v>
       </c>
       <c r="D163" t="n">
-        <v>11688</v>
+        <v>24983</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive?</t>
+          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Question_1_Market_related</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>93</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164">
@@ -4844,26 +4844,26 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="C164" t="n">
-        <v>11423</v>
+        <v>24256</v>
       </c>
       <c r="D164" t="n">
-        <v>11688</v>
+        <v>24983</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive?</t>
+          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="165">
@@ -4871,26 +4871,26 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="C165" t="n">
-        <v>11423</v>
+        <v>24256</v>
       </c>
       <c r="D165" t="n">
-        <v>11688</v>
+        <v>24983</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive?</t>
+          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Question_3_attack</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166">
@@ -4898,26 +4898,26 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="C166" t="n">
-        <v>11423</v>
+        <v>24256</v>
       </c>
       <c r="D166" t="n">
-        <v>11926</v>
+        <v>24983</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive? And second, Sundar or Ruth, we don't often ask about the display network, but just wondering, given all the concerns around privacy, ad blocking and the like, how do you view this business strategically, as part of the overall ecosystem?</t>
+          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Question_3_attack</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>99</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167">
@@ -4925,26 +4925,26 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="C167" t="n">
-        <v>11689</v>
+        <v>24256</v>
       </c>
       <c r="D167" t="n">
-        <v>11926</v>
+        <v>24983</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>And second, Sundar or Ruth, we don't often ask about the display network, but just wondering, given all the concerns around privacy, ad blocking and the like, how do you view this business strategically, as part of the overall ecosystem?</t>
+          <t>And we won’t let it get to that, right, as we feel an initiative is ready to go, we can engage in the discussions that I talked about to make sure that we can match their needs to pricing based on the visibility into the roadmap that we have.We also know that as we engage with them, that overall, their price per patient, their price per sample is so much more than just the price of sequencing. And so, we help with the reference architectures. We have examples where we have been implemented in an end-to-end way with a set of partners.And so we help our customers take friction out of the system and overall take the cost down per patient and per sample by helping them think about what the end-to-end flow could look like.</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>QID_13</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>96</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168">
@@ -4952,26 +4952,26 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="C168" t="n">
-        <v>11689</v>
+        <v>3608</v>
       </c>
       <c r="D168" t="n">
-        <v>11926</v>
+        <v>4028</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>And second, Sundar or Ruth, we don't often ask about the display network, but just wondering, given all the concerns around privacy, ad blocking and the like, how do you view this business strategically, as part of the overall ecosystem?</t>
+          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Question_1_Market_related</t>
+          <t>QID_3</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
@@ -4979,26 +4979,26 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="C169" t="n">
-        <v>11689</v>
+        <v>3608</v>
       </c>
       <c r="D169" t="n">
-        <v>11926</v>
+        <v>4028</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>And second, Sundar or Ruth, we don't often ask about the display network, but just wondering, given all the concerns around privacy, ad blocking and the like, how do you view this business strategically, as part of the overall ecosystem?</t>
+          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Question_2_open</t>
+          <t>Question_2_specific</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170">
@@ -5006,26 +5006,26 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3052</v>
+        <v>3044</v>
       </c>
       <c r="C170" t="n">
-        <v>137</v>
+        <v>3608</v>
       </c>
       <c r="D170" t="n">
-        <v>746</v>
+        <v>4028</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
+          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Question_1_Market_related</t>
+          <t>Question_2_specific</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171">
@@ -5033,26 +5033,26 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3052</v>
+        <v>3044</v>
       </c>
       <c r="C171" t="n">
-        <v>137</v>
+        <v>3608</v>
       </c>
       <c r="D171" t="n">
-        <v>746</v>
+        <v>4028</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
+          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172">
@@ -5060,26 +5060,26 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3052</v>
+        <v>3044</v>
       </c>
       <c r="C172" t="n">
-        <v>137</v>
+        <v>3608</v>
       </c>
       <c r="D172" t="n">
-        <v>746</v>
+        <v>4028</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
+          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>QID_3</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -5087,26 +5087,26 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3052</v>
+        <v>3044</v>
       </c>
       <c r="C173" t="n">
-        <v>137</v>
+        <v>3608</v>
       </c>
       <c r="D173" t="n">
-        <v>746</v>
+        <v>4028</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
+          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>QID_1</t>
+          <t>Question_2_specific</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174">
@@ -5114,26 +5114,26 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3052</v>
+        <v>3044</v>
       </c>
       <c r="C174" t="n">
-        <v>137</v>
+        <v>3608</v>
       </c>
       <c r="D174" t="n">
-        <v>746</v>
+        <v>4028</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
+          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Question_1_Market_related</t>
+          <t>Question_2_specific</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175">
@@ -5141,26 +5141,26 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3052</v>
+        <v>3044</v>
       </c>
       <c r="C175" t="n">
-        <v>137</v>
+        <v>3608</v>
       </c>
       <c r="D175" t="n">
-        <v>746</v>
+        <v>4028</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
+          <t xml:space="preserve"> Hi, there. Thanks very much for taking my question. So you narrowed the R&amp;D and SG&amp;A guidance to the upper end of the previous ranges. And so I guess -- I'm wondering maybe bigger picture perhaps longer term especially as we're getting closer now to the filgotinib launch how do you guys balance the importance of margin preservation and earnings growth against the potential to invest as you build out in inflammation?</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176">
@@ -5168,26 +5168,26 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3052</v>
+        <v>3047</v>
       </c>
       <c r="C176" t="n">
-        <v>137</v>
+        <v>11423</v>
       </c>
       <c r="D176" t="n">
-        <v>746</v>
+        <v>11688</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
+          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive?</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>QID_12</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177">
@@ -5195,26 +5195,26 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3052</v>
+        <v>3047</v>
       </c>
       <c r="C177" t="n">
-        <v>137</v>
+        <v>11423</v>
       </c>
       <c r="D177" t="n">
-        <v>746</v>
+        <v>11688</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
+          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive?</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>QID_1</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="178">
@@ -5222,26 +5222,26 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="C178" t="n">
-        <v>18605</v>
+        <v>11423</v>
       </c>
       <c r="D178" t="n">
-        <v>19360</v>
+        <v>11688</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
+          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive?</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>AID_5</t>
+          <t>Question_2_specific</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179">
@@ -5249,26 +5249,26 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="C179" t="n">
-        <v>18606</v>
+        <v>11423</v>
       </c>
       <c r="D179" t="n">
-        <v>19360</v>
+        <v>11688</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
+          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive?</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_3_attack</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="180">
@@ -5276,26 +5276,26 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="C180" t="n">
-        <v>18606</v>
+        <v>11423</v>
       </c>
       <c r="D180" t="n">
-        <v>19360</v>
+        <v>11926</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
+          <t>Sundar, there's clearly a lot of innovation happening at Google. But, I'm wondering how do you think about the increase in scrutiny and oversight possibly impacting your ability to explore new services or new markets over time, and ultimately to remain competitive? And second, Sundar or Ruth, we don't often ask about the display network, but just wondering, given all the concerns around privacy, ad blocking and the like, how do you view this business strategically, as part of the overall ecosystem?</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_3_attack</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181">
@@ -5303,26 +5303,26 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="C181" t="n">
-        <v>18606</v>
+        <v>11689</v>
       </c>
       <c r="D181" t="n">
-        <v>19360</v>
+        <v>11926</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
+          <t>And second, Sundar or Ruth, we don't often ask about the display network, but just wondering, given all the concerns around privacy, ad blocking and the like, how do you view this business strategically, as part of the overall ecosystem?</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>QID_13</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182">
@@ -5330,26 +5330,26 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="C182" t="n">
-        <v>18605</v>
+        <v>11689</v>
       </c>
       <c r="D182" t="n">
-        <v>19360</v>
+        <v>11926</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
+          <t>And second, Sundar or Ruth, we don't often ask about the display network, but just wondering, given all the concerns around privacy, ad blocking and the like, how do you view this business strategically, as part of the overall ecosystem?</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>AID_5</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183">
@@ -5357,26 +5357,26 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="C183" t="n">
-        <v>18606</v>
+        <v>11689</v>
       </c>
       <c r="D183" t="n">
-        <v>19360</v>
+        <v>11926</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
+          <t>And second, Sundar or Ruth, we don't often ask about the display network, but just wondering, given all the concerns around privacy, ad blocking and the like, how do you view this business strategically, as part of the overall ecosystem?</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_2_open</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184">
@@ -5384,26 +5384,26 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="C184" t="n">
-        <v>18606</v>
+        <v>137</v>
       </c>
       <c r="D184" t="n">
-        <v>19360</v>
+        <v>746</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
+          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5411,26 +5411,26 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="C185" t="n">
-        <v>18606</v>
+        <v>137</v>
       </c>
       <c r="D185" t="n">
-        <v>19360</v>
+        <v>746</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
+          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -5438,26 +5438,26 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3065</v>
+        <v>3052</v>
       </c>
       <c r="C186" t="n">
-        <v>53276</v>
+        <v>137</v>
       </c>
       <c r="D186" t="n">
-        <v>53641</v>
+        <v>746</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior? </t>
+          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>QID_13</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>136</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -5465,26 +5465,26 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3065</v>
+        <v>3052</v>
       </c>
       <c r="C187" t="n">
-        <v>53276</v>
+        <v>137</v>
       </c>
       <c r="D187" t="n">
-        <v>53641</v>
+        <v>746</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior? </t>
+          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Question_1_Market_related</t>
+          <t>QID_1</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
@@ -5492,26 +5492,26 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3065</v>
+        <v>3052</v>
       </c>
       <c r="C188" t="n">
-        <v>53276</v>
+        <v>137</v>
       </c>
       <c r="D188" t="n">
-        <v>53641</v>
+        <v>746</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior? </t>
+          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -5519,26 +5519,26 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3065</v>
+        <v>3052</v>
       </c>
       <c r="C189" t="n">
-        <v>53258</v>
+        <v>137</v>
       </c>
       <c r="D189" t="n">
-        <v>53640</v>
+        <v>746</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>\nRichard Cathcart: Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior?</t>
+          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5546,17 +5546,17 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3065</v>
+        <v>3052</v>
       </c>
       <c r="C190" t="n">
-        <v>53258</v>
+        <v>137</v>
       </c>
       <c r="D190" t="n">
-        <v>53640</v>
+        <v>746</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>\nRichard Cathcart: Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior?</t>
+          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -5573,26 +5573,26 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3065</v>
+        <v>3052</v>
       </c>
       <c r="C191" t="n">
-        <v>53258</v>
+        <v>137</v>
       </c>
       <c r="D191" t="n">
-        <v>53640</v>
+        <v>746</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>\nRichard Cathcart: Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior?</t>
+          <t>I'd like to start actually with the last comment you made about ending neuroscience. I'm sure it was a difficult decision and a lot of us are following it through other companies and we've seen some really interesting breakthroughs, especially when it comes to nucleic acid-based medicine. Can you talk a little bit about that decision your decision? The other option, obviously, was to double down and go even more innovative. What drove that decision in terms of your thinking? And if you can like coach it in terms of how you feel about the neurology market and what it takes to succeed that will be great.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>QID_1</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192">
@@ -5600,26 +5600,26 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3068</v>
+        <v>3056</v>
       </c>
       <c r="C192" t="n">
-        <v>58575</v>
+        <v>18605</v>
       </c>
       <c r="D192" t="n">
-        <v>58695</v>
+        <v>19360</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
+          <t xml:space="preserve"> I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>QID_21</t>
+          <t>AID_5</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>176</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193">
@@ -5627,26 +5627,26 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3068</v>
+        <v>3056</v>
       </c>
       <c r="C193" t="n">
-        <v>58575</v>
+        <v>18606</v>
       </c>
       <c r="D193" t="n">
-        <v>58695</v>
+        <v>19360</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
+          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Question_1_Company_specific</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>177</v>
+        <v>52</v>
       </c>
     </row>
     <row r="194">
@@ -5654,26 +5654,26 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3068</v>
+        <v>3056</v>
       </c>
       <c r="C194" t="n">
-        <v>58575</v>
+        <v>18606</v>
       </c>
       <c r="D194" t="n">
-        <v>58695</v>
+        <v>19360</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
+          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>178</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195">
@@ -5681,26 +5681,26 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3068</v>
+        <v>3056</v>
       </c>
       <c r="C195" t="n">
-        <v>58575</v>
+        <v>18606</v>
       </c>
       <c r="D195" t="n">
-        <v>58695</v>
+        <v>19360</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
+          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>179</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196">
@@ -5708,26 +5708,26 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>3068</v>
+        <v>3056</v>
       </c>
       <c r="C196" t="n">
-        <v>58575</v>
+        <v>18605</v>
       </c>
       <c r="D196" t="n">
-        <v>58695</v>
+        <v>19360</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
+          <t xml:space="preserve"> I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>QID_21</t>
+          <t>AID_5</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>176</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197">
@@ -5735,26 +5735,26 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3068</v>
+        <v>3056</v>
       </c>
       <c r="C197" t="n">
-        <v>58575</v>
+        <v>18606</v>
       </c>
       <c r="D197" t="n">
-        <v>58695</v>
+        <v>19360</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
+          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Question_1_Company_specific</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>177</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198">
@@ -5762,26 +5762,26 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3068</v>
+        <v>3056</v>
       </c>
       <c r="C198" t="n">
-        <v>58575</v>
+        <v>18606</v>
       </c>
       <c r="D198" t="n">
-        <v>58695</v>
+        <v>19360</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
+          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>178</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199">
@@ -5789,26 +5789,26 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3068</v>
+        <v>3056</v>
       </c>
       <c r="C199" t="n">
-        <v>58575</v>
+        <v>18606</v>
       </c>
       <c r="D199" t="n">
-        <v>58695</v>
+        <v>19360</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
+          <t>I'll just add a few things here just to highlight that we're still seeing growth in our digital flywheel. Just in this quarter alone our loyalty programs contributed nearly two points of comp and that's making up about 42% of our tender right now. And typically in the fourth quarter where we usually see retraction, we actually saw active member growth of about 15% year-over-year approaching almost 18 million members. And then the new Starbucks Rewards which we're calling Starbucks Rewards 4.0 we're seeing good performance in our 90-day active consumers. And it's in line with our expectation. So we're still seeing improvement in growth in our relationships and our digital platforms. And we'll continue to see that as we get into fiscal year 2020.</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>179</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200">
@@ -5816,26 +5816,26 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3071</v>
+        <v>3065</v>
       </c>
       <c r="C200" t="n">
-        <v>17910</v>
+        <v>53276</v>
       </c>
       <c r="D200" t="n">
-        <v>18845</v>
+        <v>53641</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology. We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
+          <t xml:space="preserve">Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior? </t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>QID_13</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>37</v>
+        <v>136</v>
       </c>
     </row>
     <row r="201">
@@ -5843,26 +5843,26 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3071</v>
+        <v>3065</v>
       </c>
       <c r="C201" t="n">
-        <v>17910</v>
+        <v>53276</v>
       </c>
       <c r="D201" t="n">
-        <v>18845</v>
+        <v>53641</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology. We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
+          <t xml:space="preserve">Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior? </t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Answer_2_positive</t>
+          <t>Question_1_Market_related</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="202">
@@ -5870,26 +5870,26 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>3071</v>
+        <v>3065</v>
       </c>
       <c r="C202" t="n">
-        <v>17910</v>
+        <v>53276</v>
       </c>
       <c r="D202" t="n">
-        <v>18334</v>
+        <v>53641</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
+          <t xml:space="preserve">Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior? </t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>AID_9</t>
+          <t>Question_2_specific</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>39</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203">
@@ -5897,26 +5897,26 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>3071</v>
+        <v>3065</v>
       </c>
       <c r="C203" t="n">
-        <v>17910</v>
+        <v>53258</v>
       </c>
       <c r="D203" t="n">
-        <v>18334</v>
+        <v>53640</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
+          <t>\nRichard Cathcart: Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior?</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Answer_2_positive</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204">
@@ -5924,26 +5924,26 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>3071</v>
+        <v>3065</v>
       </c>
       <c r="C204" t="n">
-        <v>17910</v>
+        <v>53258</v>
       </c>
       <c r="D204" t="n">
-        <v>18334</v>
+        <v>53640</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
+          <t>\nRichard Cathcart: Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior?</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Answer_3_blame</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205">
@@ -5951,26 +5951,26 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>3071</v>
+        <v>3065</v>
       </c>
       <c r="C205" t="n">
-        <v>17910</v>
+        <v>53258</v>
       </c>
       <c r="D205" t="n">
-        <v>18334</v>
+        <v>53640</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
+          <t>\nRichard Cathcart: Thanks very much. And if I may just a quick follow-up for Osvaldo, I think, I wanted to ask about the promotions, the discounts that you’ve been offering to consumers to use the Mercado Pago wallet. Can you just give us a little bit of color about kind of what you are learning from those discounts and promotions and kind of how that is impacting users’ behavior?</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206">
@@ -5978,26 +5978,26 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="C206" t="n">
-        <v>17910</v>
+        <v>58575</v>
       </c>
       <c r="D206" t="n">
-        <v>18845</v>
+        <v>58695</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology. We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
+          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>QID_21</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>37</v>
+        <v>176</v>
       </c>
     </row>
     <row r="207">
@@ -6005,26 +6005,26 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="C207" t="n">
-        <v>17910</v>
+        <v>58575</v>
       </c>
       <c r="D207" t="n">
-        <v>18845</v>
+        <v>58695</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology. We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
+          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Answer_2_positive</t>
+          <t>Question_1_Company_specific</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>38</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208">
@@ -6032,26 +6032,26 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="C208" t="n">
-        <v>17910</v>
+        <v>58575</v>
       </c>
       <c r="D208" t="n">
-        <v>18334</v>
+        <v>58695</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
+          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>AID_9</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>39</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209">
@@ -6059,26 +6059,26 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="C209" t="n">
-        <v>17910</v>
+        <v>58575</v>
       </c>
       <c r="D209" t="n">
-        <v>18334</v>
+        <v>58695</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
+          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Answer_2_positive</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>101</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210">
@@ -6086,26 +6086,26 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="C210" t="n">
-        <v>17910</v>
+        <v>58575</v>
       </c>
       <c r="D210" t="n">
-        <v>18334</v>
+        <v>58695</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
+          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Answer_3_blame</t>
+          <t>QID_21</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>102</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211">
@@ -6113,26 +6113,26 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="C211" t="n">
-        <v>17910</v>
+        <v>58575</v>
       </c>
       <c r="D211" t="n">
-        <v>18334</v>
+        <v>58695</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
+          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>Question_1_Company_specific</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>103</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212">
@@ -6140,26 +6140,26 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="C212" t="n">
-        <v>18335</v>
+        <v>58575</v>
       </c>
       <c r="D212" t="n">
-        <v>18845</v>
+        <v>58695</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
+          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>AID_9</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>100</v>
+        <v>178</v>
       </c>
     </row>
     <row r="213">
@@ -6167,26 +6167,26 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="C213" t="n">
-        <v>18335</v>
+        <v>58575</v>
       </c>
       <c r="D213" t="n">
-        <v>18845</v>
+        <v>58695</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
+          <t>In the 2020, 0% to 2% RevPAR guidance, can you parse out the impact from group business transient and leisure transient?</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>Question_3_neutral</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>104</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214">
@@ -6197,23 +6197,23 @@
         <v>3071</v>
       </c>
       <c r="C214" t="n">
-        <v>18335</v>
+        <v>17910</v>
       </c>
       <c r="D214" t="n">
         <v>18845</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology. We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>AID_9</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215">
@@ -6224,23 +6224,23 @@
         <v>3071</v>
       </c>
       <c r="C215" t="n">
-        <v>18335</v>
+        <v>17910</v>
       </c>
       <c r="D215" t="n">
         <v>18845</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology. We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>104</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216">
@@ -6248,26 +6248,26 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="C216" t="n">
-        <v>20332</v>
+        <v>17910</v>
       </c>
       <c r="D216" t="n">
-        <v>20375</v>
+        <v>18334</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>It's only two months. It’s only two months.</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>AID_2</t>
+          <t>AID_9</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217">
@@ -6275,26 +6275,26 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="C217" t="n">
-        <v>20332</v>
+        <v>17910</v>
       </c>
       <c r="D217" t="n">
-        <v>20375</v>
+        <v>18334</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>It's only two months. It’s only two months.</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Answer_1_avoid_excuse</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="218">
@@ -6302,26 +6302,26 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="C218" t="n">
-        <v>20332</v>
+        <v>17910</v>
       </c>
       <c r="D218" t="n">
-        <v>20375</v>
+        <v>18334</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>It's only two months. It’s only two months.</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Answer_2_negative</t>
+          <t>Answer_3_blame</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219">
@@ -6329,26 +6329,26 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="C219" t="n">
-        <v>20332</v>
+        <v>17910</v>
       </c>
       <c r="D219" t="n">
-        <v>20375</v>
+        <v>18334</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>It's only two months. It’s only two months.</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Answer_3_blame</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="220">
@@ -6356,26 +6356,26 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="C220" t="n">
-        <v>20332</v>
+        <v>17910</v>
       </c>
       <c r="D220" t="n">
-        <v>20375</v>
+        <v>18845</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>It's only two months. It’s only two months.</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology. We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Answer_2_negative</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="221">
@@ -6383,26 +6383,26 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>3088</v>
+        <v>3071</v>
       </c>
       <c r="C221" t="n">
-        <v>3580</v>
+        <v>17910</v>
       </c>
       <c r="D221" t="n">
-        <v>3784</v>
+        <v>18845</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology. We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>QID_4</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="222">
@@ -6410,26 +6410,26 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>3088</v>
+        <v>3071</v>
       </c>
       <c r="C222" t="n">
-        <v>3581</v>
+        <v>17910</v>
       </c>
       <c r="D222" t="n">
-        <v>3784</v>
+        <v>18334</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>AID_9</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223">
@@ -6437,26 +6437,26 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>3088</v>
+        <v>3071</v>
       </c>
       <c r="C223" t="n">
-        <v>3581</v>
+        <v>17910</v>
       </c>
       <c r="D223" t="n">
-        <v>3784</v>
+        <v>18334</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>Answer_2_positive</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="224">
@@ -6464,26 +6464,26 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>3088</v>
+        <v>3071</v>
       </c>
       <c r="C224" t="n">
-        <v>3581</v>
+        <v>17910</v>
       </c>
       <c r="D224" t="n">
-        <v>3784</v>
+        <v>18334</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>Answer_3_blame</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="225">
@@ -6491,26 +6491,26 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>3088</v>
+        <v>3071</v>
       </c>
       <c r="C225" t="n">
-        <v>3580</v>
+        <v>17910</v>
       </c>
       <c r="D225" t="n">
-        <v>3784</v>
+        <v>18334</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+          <t>We are growing in that space, but in all fairness, we do not have the broad reimbursement for Insulin using Type II patients that we so desire. Medicare covers those patients and some of the payers have come along and some of them have not. We think it will continue to grow over time. But even with our pharmacy contracts, there are sometimes limitations as to what insulin using patients can have access to our technology.</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>QID_4</t>
+          <t>Answer_1_specific</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226">
@@ -6518,26 +6518,26 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>3088</v>
+        <v>3071</v>
       </c>
       <c r="C226" t="n">
-        <v>3581</v>
+        <v>18335</v>
       </c>
       <c r="D226" t="n">
-        <v>3784</v>
+        <v>18845</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+          <t>We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>AID_9</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227">
@@ -6545,26 +6545,26 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3088</v>
+        <v>3071</v>
       </c>
       <c r="C227" t="n">
-        <v>3581</v>
+        <v>18335</v>
       </c>
       <c r="D227" t="n">
-        <v>3784</v>
+        <v>18845</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+          <t>We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Question_2_specific</t>
+          <t>Answer_3_no_blame</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228">
@@ -6572,26 +6572,26 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>3088</v>
+        <v>3071</v>
       </c>
       <c r="C228" t="n">
-        <v>3581</v>
+        <v>18335</v>
       </c>
       <c r="D228" t="n">
-        <v>3784</v>
+        <v>18845</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+          <t>We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Question_3_neutral</t>
+          <t>AID_9</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229">
@@ -6599,17 +6599,17 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3089</v>
+        <v>3071</v>
       </c>
       <c r="C229" t="n">
-        <v>9625</v>
+        <v>18335</v>
       </c>
       <c r="D229" t="n">
-        <v>10176</v>
+        <v>18845</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Well, I'll give you some specific numbers around that. The backlog that we have scheduled for FY '20 is roughly 65%, that's lower than it's traditionally been, mostly because of the transition to 606 and with a hard -- higher mix of hardware and IP. From a modeling perspective, when we take into account what we have visibility to from hardware and IP. The range and -- the range of how we're building the business between backlog and turns and what we have visibility to is pretty consistent with what we've been managing to over the last few years.</t>
+          <t>We are negotiating through that. We are willing to give - for example, willing to give price to have those patients covered if they will cover them. The Medicare patients do have coverage and that's where a large portion of this population exists and we will be able to get those and go after them. But it's still - it's still a chore and it is still not, first question not the majority of our business, even the majority of our Medicare patients at this point in time. It's a great growth opportunity for us.</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230">
@@ -6626,26 +6626,26 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3089</v>
+        <v>3073</v>
       </c>
       <c r="C230" t="n">
-        <v>9625</v>
+        <v>20332</v>
       </c>
       <c r="D230" t="n">
-        <v>10176</v>
+        <v>20375</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Well, I'll give you some specific numbers around that. The backlog that we have scheduled for FY '20 is roughly 65%, that's lower than it's traditionally been, mostly because of the transition to 606 and with a hard -- higher mix of hardware and IP. From a modeling perspective, when we take into account what we have visibility to from hardware and IP. The range and -- the range of how we're building the business between backlog and turns and what we have visibility to is pretty consistent with what we've been managing to over the last few years.</t>
+          <t>It's only two months. It’s only two months.</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Answer_1_specific</t>
+          <t>AID_2</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
@@ -6653,26 +6653,26 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3089</v>
+        <v>3073</v>
       </c>
       <c r="C231" t="n">
-        <v>9625</v>
+        <v>20332</v>
       </c>
       <c r="D231" t="n">
-        <v>10176</v>
+        <v>20375</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Well, I'll give you some specific numbers around that. The backlog that we have scheduled for FY '20 is roughly 65%, that's lower than it's traditionally been, mostly because of the transition to 606 and with a hard -- higher mix of hardware and IP. From a modeling perspective, when we take into account what we have visibility to from hardware and IP. The range and -- the range of how we're building the business between backlog and turns and what we have visibility to is pretty consistent with what we've been managing to over the last few years.</t>
+          <t>It's only two months. It’s only two months.</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Answer_2_positive</t>
+          <t>Answer_1_avoid_excuse</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232">
@@ -6680,26 +6680,26 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3089</v>
+        <v>3073</v>
       </c>
       <c r="C232" t="n">
-        <v>9625</v>
+        <v>20332</v>
       </c>
       <c r="D232" t="n">
-        <v>10176</v>
+        <v>20375</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Well, I'll give you some specific numbers around that. The backlog that we have scheduled for FY '20 is roughly 65%, that's lower than it's traditionally been, mostly because of the transition to 606 and with a hard -- higher mix of hardware and IP. From a modeling perspective, when we take into account what we have visibility to from hardware and IP. The range and -- the range of how we're building the business between backlog and turns and what we have visibility to is pretty consistent with what we've been managing to over the last few years.</t>
+          <t>It's only two months. It’s only two months.</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Answer_3_no_blame</t>
+          <t>Answer_2_negative</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233">
@@ -6707,25 +6707,403 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>3073</v>
+      </c>
+      <c r="C233" t="n">
+        <v>20332</v>
+      </c>
+      <c r="D233" t="n">
+        <v>20375</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>It's only two months. It’s only two months.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Answer_3_blame</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3073</v>
+      </c>
+      <c r="C234" t="n">
+        <v>20332</v>
+      </c>
+      <c r="D234" t="n">
+        <v>20375</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>It's only two months. It’s only two months.</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Answer_2_negative</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3580</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>QID_4</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C236" t="n">
+        <v>3581</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Question_2_specific</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3581</v>
+      </c>
+      <c r="D237" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Question_2_specific</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3581</v>
+      </c>
+      <c r="D238" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Question_3_neutral</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3580</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>QID_4</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C240" t="n">
+        <v>3581</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Question_2_specific</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3581</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Question_2_specific</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3581</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3784</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Vince, you talked about connectivity now for BMS and including wireless. I assume that is based on a proprietary wireless heart technology? If not, maybe you could elaborate a little bit on that, please?</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Question_3_neutral</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
         <v>3089</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C243" t="n">
         <v>9625</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D243" t="n">
         <v>10176</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>Well, I'll give you some specific numbers around that. The backlog that we have scheduled for FY '20 is roughly 65%, that's lower than it's traditionally been, mostly because of the transition to 606 and with a hard -- higher mix of hardware and IP. From a modeling perspective, when we take into account what we have visibility to from hardware and IP. The range and -- the range of how we're building the business between backlog and turns and what we have visibility to is pretty consistent with what we've been managing to over the last few years.</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Answer_3_no_blame</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3089</v>
+      </c>
+      <c r="C244" t="n">
+        <v>9625</v>
+      </c>
+      <c r="D244" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Well, I'll give you some specific numbers around that. The backlog that we have scheduled for FY '20 is roughly 65%, that's lower than it's traditionally been, mostly because of the transition to 606 and with a hard -- higher mix of hardware and IP. From a modeling perspective, when we take into account what we have visibility to from hardware and IP. The range and -- the range of how we're building the business between backlog and turns and what we have visibility to is pretty consistent with what we've been managing to over the last few years.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Answer_1_specific</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3089</v>
+      </c>
+      <c r="C245" t="n">
+        <v>9625</v>
+      </c>
+      <c r="D245" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Well, I'll give you some specific numbers around that. The backlog that we have scheduled for FY '20 is roughly 65%, that's lower than it's traditionally been, mostly because of the transition to 606 and with a hard -- higher mix of hardware and IP. From a modeling perspective, when we take into account what we have visibility to from hardware and IP. The range and -- the range of how we're building the business between backlog and turns and what we have visibility to is pretty consistent with what we've been managing to over the last few years.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Answer_2_positive</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3089</v>
+      </c>
+      <c r="C246" t="n">
+        <v>9625</v>
+      </c>
+      <c r="D246" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Well, I'll give you some specific numbers around that. The backlog that we have scheduled for FY '20 is roughly 65%, that's lower than it's traditionally been, mostly because of the transition to 606 and with a hard -- higher mix of hardware and IP. From a modeling perspective, when we take into account what we have visibility to from hardware and IP. The range and -- the range of how we're building the business between backlog and turns and what we have visibility to is pretty consistent with what we've been managing to over the last few years.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Answer_3_no_blame</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3089</v>
+      </c>
+      <c r="C247" t="n">
+        <v>9625</v>
+      </c>
+      <c r="D247" t="n">
+        <v>10176</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Well, I'll give you some specific numbers around that. The backlog that we have scheduled for FY '20 is roughly 65%, that's lower than it's traditionally been, mostly because of the transition to 606 and with a hard -- higher mix of hardware and IP. From a modeling perspective, when we take into account what we have visibility to from hardware and IP. The range and -- the range of how we're building the business between backlog and turns and what we have visibility to is pretty consistent with what we've been managing to over the last few years.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
         <is>
           <t>AID_12</t>
         </is>
       </c>
-      <c r="G233" t="n">
+      <c r="G247" t="n">
         <v>108</v>
       </c>
     </row>
